--- a/data/parsed_data.xlsx
+++ b/data/parsed_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Links</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Match %</t>
         </is>
       </c>
@@ -470,6 +475,11 @@
           <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -493,6 +503,11 @@
           <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +531,11 @@
           <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -539,6 +559,11 @@
           <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -562,6 +587,11 @@
           <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -585,7 +615,152 @@
           <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VASHIST TIWARI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>vashisttiwari2000@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+91-9691793124
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VASHIST TIWARI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>vashisttiwari2000@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+91-9691793124
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VASHIST TIWARI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>vashisttiwari2000@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+91-9691793124
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VASHIST TIWARI</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>vashisttiwari2000@gmail.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+91-9691793124
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VASHIST TIWARI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>vashisttiwari2000@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+91-9691793124
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Python, C, HTML, CSS, JavaScript, React, Node, SQL, MongoDB, MySQL, Git, Machine Learning, TensorFlow</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>mailto:vashisttiwari2000@gmail.com, https://github.com/Vashist1110/, https://www.linkedin.com/in/vashist-tiwari-a302b922b/, https://codeforces.com/profile/Vashist1110, https://www.codechef.com/users/vashist1110, https://leetcode.com/u/Vashist1110/, https://www.geeksforgeeks.org/user/vashistti5xcg/, https://github.com/Vashist1110/BeSocial, https://besocial-qrrq.onrender.com/, https://github.com/Vashist1110/Aalekhika, https://sunny-squirrel-b2352f.netlify.app/, https://github.com/Vashist1110/ONCO-TECH</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
